--- a/Data1/Ge.xlsx
+++ b/Data1/Ge.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -376,7 +376,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -637,7 +637,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1571,7 +1571,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-93B7-4226-A3CA-1BC4796A252B}"/>
             </c:ext>
@@ -1676,7 +1676,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-93B7-4226-A3CA-1BC4796A252B}"/>
             </c:ext>
@@ -1811,7 +1811,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-93B7-4226-A3CA-1BC4796A252B}"/>
             </c:ext>
@@ -1882,7 +1882,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-93B7-4226-A3CA-1BC4796A252B}"/>
             </c:ext>
@@ -2121,7 +2121,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-93B7-4226-A3CA-1BC4796A252B}"/>
             </c:ext>
@@ -2586,7 +2586,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-93B7-4226-A3CA-1BC4796A252B}"/>
             </c:ext>
@@ -2600,11 +2600,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1753795503"/>
-        <c:axId val="1753798831"/>
+        <c:axId val="265676944"/>
+        <c:axId val="265673808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1753795503"/>
+        <c:axId val="265676944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2661,12 +2661,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1753798831"/>
+        <c:crossAx val="265673808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1753798831"/>
+        <c:axId val="265673808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2723,7 +2723,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1753795503"/>
+        <c:crossAx val="265676944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2813,7 +2813,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2827,7 +2827,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3812,7 +3811,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CE8A-4CF4-A846-A65320E90092}"/>
             </c:ext>
@@ -3826,11 +3825,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1947365408"/>
-        <c:axId val="1947366240"/>
+        <c:axId val="265674592"/>
+        <c:axId val="265673416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1947365408"/>
+        <c:axId val="265674592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3887,12 +3886,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1947366240"/>
+        <c:crossAx val="265673416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1947366240"/>
+        <c:axId val="265673416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3949,7 +3948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1947365408"/>
+        <c:crossAx val="265674592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3999,7 +3998,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4936,7 +4935,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4207-46EE-B9C8-6AC1BAD3C8F7}"/>
             </c:ext>
@@ -4950,11 +4949,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1753795503"/>
-        <c:axId val="1753798831"/>
+        <c:axId val="265669888"/>
+        <c:axId val="265674984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1753795503"/>
+        <c:axId val="265669888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5011,12 +5010,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1753798831"/>
+        <c:crossAx val="265674984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1753798831"/>
+        <c:axId val="265674984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5067,7 +5066,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1753795503"/>
+        <c:crossAx val="265669888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5130,7 +5129,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6067,7 +6066,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ACEF-4D01-AC41-E296BD2B6826}"/>
             </c:ext>
@@ -6081,11 +6080,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1753795503"/>
-        <c:axId val="1753798831"/>
+        <c:axId val="265671456"/>
+        <c:axId val="265671848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1753795503"/>
+        <c:axId val="265671456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6142,12 +6141,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1753798831"/>
+        <c:crossAx val="265671848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1753798831"/>
+        <c:axId val="265671848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6198,7 +6197,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1753795503"/>
+        <c:crossAx val="265671456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6261,7 +6260,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6300,7 +6299,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7199,7 +7197,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-021F-4E15-A28B-D2230B941F62}"/>
             </c:ext>
@@ -7213,11 +7211,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1753795503"/>
-        <c:axId val="1753798831"/>
+        <c:axId val="302618272"/>
+        <c:axId val="302617488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1753795503"/>
+        <c:axId val="302618272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7274,12 +7272,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1753798831"/>
+        <c:crossAx val="302617488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1753798831"/>
+        <c:axId val="302617488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7330,7 +7328,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1753795503"/>
+        <c:crossAx val="302618272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10188,16 +10186,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>375285</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>140969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>573405</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>36194</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10633,18 +10631,18 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="26"/>
-    <col min="5" max="5" width="12.7109375" style="23" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="24"/>
+    <col min="1" max="1" width="51.6640625" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" style="26"/>
+    <col min="5" max="5" width="12.6640625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10664,7 +10662,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="11" t="s">
         <v>20</v>
@@ -10684,7 +10682,7 @@
         <v>-0.87546873735389985</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="11" t="s">
         <v>21</v>
@@ -10704,7 +10702,7 @@
         <v>-0.87546873735389985</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -10726,7 +10724,7 @@
         <v>-0.74193734472937733</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -10748,7 +10746,7 @@
         <v>-0.64185388617239481</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -10770,7 +10768,7 @@
         <v>-0.64185388617239481</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="11" t="s">
         <v>25</v>
@@ -10790,7 +10788,7 @@
         <v>-0.47000362924573558</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="11" t="s">
         <v>26</v>
@@ -10810,7 +10808,7 @@
         <v>-0.33647223662121289</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="11" t="s">
         <v>27</v>
@@ -10830,7 +10828,7 @@
         <v>-9.5310179804324893E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="11" t="s">
         <v>28</v>
@@ -10850,13 +10848,13 @@
         <v>-0.1655144384775733</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="36"/>
       <c r="C11" s="28"/>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>6</v>
       </c>
@@ -10878,7 +10876,7 @@
         <v>-0.62057648772510998</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
@@ -10900,7 +10898,7 @@
         <v>-0.53062825106217038</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
         <v>47</v>
@@ -10920,7 +10918,7 @@
         <v>-0.74193734472937733</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7" t="s">
         <v>48</v>
@@ -10940,13 +10938,13 @@
         <v>-0.55961578793542277</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="19"/>
       <c r="C16" s="31"/>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>8</v>
       </c>
@@ -10968,7 +10966,7 @@
         <v>-0.47000362924573558</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
         <v>62</v>
@@ -10988,7 +10986,7 @@
         <v>-0.2311117209633867</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
         <v>63</v>
@@ -11008,7 +11006,7 @@
         <v>-0.10436001532424288</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
         <v>64</v>
@@ -11028,7 +11026,7 @@
         <v>-9.950330853168092E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
         <v>65</v>
@@ -11048,7 +11046,7 @@
         <v>0.127833371509885</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="s">
         <v>66</v>
@@ -11068,7 +11066,7 @@
         <v>8.3381608939051E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
         <v>67</v>
@@ -11088,7 +11086,7 @@
         <v>0.31471074483970018</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
         <v>68</v>
@@ -11108,7 +11106,7 @@
         <v>0.22314355131420976</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
         <v>69</v>
@@ -11128,7 +11126,7 @@
         <v>0.28768207245178085</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9" t="s">
         <v>70</v>
@@ -11148,7 +11146,7 @@
         <v>0.28768207245178085</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="15" t="s">
         <v>56</v>
@@ -11162,7 +11160,7 @@
       </c>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>7</v>
       </c>
@@ -11184,7 +11182,7 @@
         <v>-3.4657359027997265</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="15" t="s">
         <v>58</v>
@@ -11204,7 +11202,7 @@
         <v>-3.5835189384561099</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="15" t="s">
         <v>59</v>
@@ -11224,8 +11222,8 @@
         <v>-3.8501476017100584</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="12" t="s">
         <v>29</v>
@@ -11245,7 +11243,7 @@
         <v>-3.713572066704308</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="12" t="s">
         <v>30</v>
@@ -11265,7 +11263,7 @@
         <v>-3.713572066704308</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="12" t="s">
         <v>31</v>
@@ -11285,7 +11283,7 @@
         <v>-3.4965075614664802</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>3</v>
       </c>
@@ -11307,7 +11305,7 @@
         <v>-2.9957322735539909</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="12" t="s">
         <v>33</v>
@@ -11327,7 +11325,7 @@
         <v>-1.791759469228055</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="12" t="s">
         <v>34</v>
@@ -11347,13 +11345,13 @@
         <v>-1.9459101490553135</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="12"/>
       <c r="C38" s="30"/>
       <c r="E38" s="22"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="13" t="s">
         <v>35</v>
@@ -11369,7 +11367,7 @@
         <v>-0.58906272493546774</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>4</v>
       </c>
@@ -11387,11 +11385,11 @@
         <v>-0.52078248908287794</v>
       </c>
       <c r="F40" s="24">
-        <f t="shared" ref="F39:F44" si="7">LN(D40)</f>
+        <f t="shared" ref="F40:F44" si="7">LN(D40)</f>
         <v>-2.4159137783010487</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="13" t="s">
         <v>37</v>
@@ -11411,7 +11409,7 @@
         <v>-1.8562979903656263</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="13" t="s">
         <v>38</v>
@@ -11431,7 +11429,7 @@
         <v>-1.1939224684724346</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="13" t="s">
         <v>39</v>
@@ -11451,7 +11449,7 @@
         <v>-0.18232155679395459</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="13" t="s">
         <v>40</v>
@@ -11471,13 +11469,13 @@
         <v>0.26136476413440751</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="13"/>
       <c r="C45" s="30"/>
       <c r="E45" s="22"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>5</v>
       </c>
@@ -11489,7 +11487,7 @@
         <v>-0.96106955033735497</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="14" t="s">
         <v>42</v>
@@ -11509,7 +11507,7 @@
         <v>-1.0986122886681098</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>43</v>
@@ -11529,7 +11527,7 @@
         <v>-0.53062825106217038</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>44</v>
@@ -11549,13 +11547,13 @@
         <v>-9.5310179804324893E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="s">
         <v>49</v>
@@ -11575,7 +11573,7 @@
         <v>-0.26236426446749112</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>7</v>
       </c>
@@ -11597,7 +11595,7 @@
         <v>-0.53062825106217038</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>7</v>
       </c>
@@ -11619,7 +11617,7 @@
         <v>-1.0986122886681098</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
         <v>52</v>
@@ -11639,7 +11637,7 @@
         <v>-1.7227665977411035</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
         <v>53</v>
@@ -11659,7 +11657,7 @@
         <v>-2.0794415416798357</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="s">
         <v>54</v>
@@ -11679,7 +11677,7 @@
         <v>-1.9459101490553135</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
         <v>55</v>
@@ -11699,13 +11697,13 @@
         <v>-2.0794415416798357</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58"/>
       <c r="F58"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="18" t="s">
         <v>87</v>
@@ -11725,7 +11723,7 @@
         <v>-2.9917242521564522</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>14</v>
       </c>
@@ -11747,13 +11745,13 @@
         <v>-3.0233474405869645</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="16" t="s">
         <v>100</v>
@@ -11773,7 +11771,7 @@
         <v>0.24846135929849955</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="16" t="s">
         <v>101</v>
@@ -11793,7 +11791,7 @@
         <v>0.19845093872383823</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="16" t="s">
         <v>102</v>
@@ -11813,7 +11811,7 @@
         <v>0.17435338714477774</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="16" t="s">
         <v>103</v>
@@ -11833,7 +11831,7 @@
         <v>0.18632957819149354</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>17</v>
       </c>
@@ -11855,7 +11853,7 @@
         <v>0.15082288973458369</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>15</v>
       </c>
@@ -11877,7 +11875,7 @@
         <v>0.22314355131420976</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>18</v>
       </c>
@@ -11899,8 +11897,8 @@
         <v>0.22314355131420976</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="17">
         <v>408</v>
@@ -11920,7 +11918,7 @@
         <v>-0.53649337051456858</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
         <v>72</v>
@@ -11940,7 +11938,7 @@
         <v>-0.2776317365982795</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="17">
         <v>400</v>
@@ -11960,7 +11958,7 @@
         <v>-0.22314355131420971</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="16" t="s">
         <v>73</v>
@@ -11980,7 +11978,7 @@
         <v>-1.0438040521731147</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="17">
         <v>436</v>
@@ -12000,7 +11998,7 @@
         <v>-0.60976557162089429</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>11</v>
       </c>
@@ -12018,7 +12016,7 @@
         <v>-0.36518234250364423</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>10</v>
       </c>
@@ -12040,7 +12038,7 @@
         <v>-0.85866161903751859</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>11</v>
       </c>
@@ -12062,7 +12060,7 @@
         <v>-0.77010822169607374</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="16" t="s">
         <v>76</v>
@@ -12082,7 +12080,7 @@
         <v>-0.74668794748797507</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
         <v>77</v>
@@ -12102,7 +12100,7 @@
         <v>-0.73236789371322675</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="17">
         <v>476</v>
@@ -12122,7 +12120,7 @@
         <v>-0.72754860727727766</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="17">
         <v>476</v>
@@ -12142,7 +12140,7 @@
         <v>-0.89199803930511046</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
         <v>78</v>
@@ -12162,7 +12160,7 @@
         <v>-0.77932487680099771</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
         <v>79</v>
@@ -12182,7 +12180,7 @@
         <v>0.16251892949777494</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
         <v>80</v>
@@ -12202,7 +12200,7 @@
         <v>-0.10436001532424288</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="17">
         <v>508</v>
@@ -12222,7 +12220,7 @@
         <v>-9.5310179804324893E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
         <v>81</v>
@@ -12242,7 +12240,7 @@
         <v>-1.2089603458369751</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="17">
         <v>5542</v>
@@ -12262,7 +12260,7 @@
         <v>-1.1019400787607843</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
         <v>82</v>
@@ -12282,7 +12280,7 @@
         <v>-0.58221561985266368</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="17">
         <v>574</v>
@@ -12292,7 +12290,7 @@
         <v>-1.2544826593748943</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
         <v>83</v>
@@ -12302,7 +12300,7 @@
         <v>-1.07238127651924</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
         <v>84</v>
@@ -12312,7 +12310,7 @@
         <v>-0.41428769672334337</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
         <v>85</v>
@@ -12322,7 +12320,7 @@
         <v>-0.28852205570150607</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
         <v>86</v>
@@ -12342,17 +12340,17 @@
         <v>-0.45107561936021673</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="29"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="29"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
         <v>71</v>
@@ -12372,7 +12370,7 @@
         <v>-1.5238800240724537</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="17">
         <v>408</v>
@@ -12392,7 +12390,7 @@
         <v>-0.47623417899637172</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
         <v>72</v>
@@ -12412,7 +12410,7 @@
         <v>-0.2776317365982795</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="17">
         <v>400</v>
@@ -12432,7 +12430,7 @@
         <v>-0.28517894223366247</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
         <v>73</v>
@@ -12452,7 +12450,7 @@
         <v>-0.53062825106217038</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="17">
         <v>436</v>
@@ -12472,7 +12470,7 @@
         <v>-0.44468582126144579</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>11</v>
       </c>
@@ -12494,7 +12492,7 @@
         <v>-0.51282362642866364</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>12</v>
       </c>
@@ -12516,7 +12514,7 @@
         <v>-0.49469624183610705</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>11</v>
       </c>
@@ -12538,7 +12536,7 @@
         <v>-0.50077528791248926</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
         <v>76</v>
@@ -12558,7 +12556,7 @@
         <v>-0.49469624183610705</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
         <v>77</v>
@@ -12578,7 +12576,7 @@
         <v>-0.55961578793542277</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="17">
         <v>476</v>
@@ -12598,7 +12596,7 @@
         <v>-0.54812140850968749</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="17">
         <v>476</v>
@@ -12618,7 +12616,7 @@
         <v>-0.77010822169607374</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
         <v>78</v>
@@ -12638,7 +12636,7 @@
         <v>-0.41871033485818493</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
         <v>79</v>
@@ -12658,7 +12656,7 @@
         <v>1.0050335853501506E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
         <v>80</v>
@@ -12678,7 +12676,7 @@
         <v>-9.5310179804324893E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="17">
         <v>508</v>
@@ -12698,7 +12696,7 @@
         <v>-0.10436001532424288</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
         <v>81</v>
@@ -12718,7 +12716,7 @@
         <v>-1.0647107369924282</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="17">
         <v>5542</v>
@@ -12738,7 +12736,7 @@
         <v>-1.0438040521731147</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
         <v>82</v>
@@ -12758,7 +12756,7 @@
         <v>-0.43825493093115531</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="17">
         <v>574</v>
@@ -12768,7 +12766,7 @@
         <v>-1.2544826593748943</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
         <v>83</v>
@@ -12778,7 +12776,7 @@
         <v>-1.07238127651924</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
         <v>84</v>
@@ -12788,7 +12786,7 @@
         <v>-0.41428769672334337</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
         <v>85</v>
@@ -12798,7 +12796,7 @@
         <v>-0.28852205570150607</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
         <v>86</v>
@@ -12818,17 +12816,17 @@
         <v>-0.46373401623214022</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="29"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="29"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
         <v>71</v>
@@ -12844,7 +12842,7 @@
         <v>-0.67664267988848215</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="17">
         <v>408</v>
@@ -12860,7 +12858,7 @@
         <v>-0.33064594895341187</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
         <v>72</v>
@@ -12876,7 +12874,7 @@
         <v>-0.21958310087873348</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="17">
         <v>400</v>
@@ -12892,7 +12890,7 @@
         <v>-0.17501581829121984</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
         <v>73</v>
@@ -12908,7 +12906,7 @@
         <v>-0.37791885851477625</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="17">
         <v>436</v>
@@ -12924,7 +12922,7 @@
         <v>-0.33064594895341187</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>11</v>
       </c>
@@ -12942,7 +12940,7 @@
         <v>-0.36518234250364423</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>13</v>
       </c>
@@ -12960,7 +12958,7 @@
         <v>-0.35763417662619251</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
@@ -12982,7 +12980,7 @@
         <v>0.57981849525294205</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
         <v>76</v>
@@ -12998,7 +12996,7 @@
         <v>-0.35629099307972489</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
         <v>77</v>
@@ -13014,11 +13012,11 @@
         <v>-0.39730179746900335</v>
       </c>
       <c r="F133" s="24">
-        <f t="shared" ref="F132:F160" si="15">LN(D133)</f>
+        <f t="shared" ref="F133:F160" si="15">LN(D133)</f>
         <v>0.51082562376599072</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="17">
         <v>476</v>
@@ -13034,7 +13032,7 @@
         <v>-0.38985569718108809</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="17">
         <v>476</v>
@@ -13054,7 +13052,7 @@
         <v>0.127833371509885</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
         <v>78</v>
@@ -13070,7 +13068,7 @@
         <v>-0.31338131575936212</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
         <v>79</v>
@@ -13090,7 +13088,7 @@
         <v>0.23572233352106978</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
         <v>80</v>
@@ -13106,7 +13104,7 @@
         <v>-0.12783337150988489</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="17">
         <v>508</v>
@@ -13122,7 +13120,7 @@
         <v>-0.12694900267046352</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
         <v>81</v>
@@ -13138,7 +13136,7 @@
         <v>-0.55130499032646818</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="17">
         <v>5542</v>
@@ -13158,7 +13156,7 @@
         <v>-0.33647223662121289</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
         <v>82</v>
@@ -13178,7 +13176,7 @@
         <v>0.59783700075562041</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="17">
         <v>574</v>
@@ -13188,7 +13186,7 @@
         <v>-1.2544826593748943</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
         <v>83</v>
@@ -13198,7 +13196,7 @@
         <v>-1.07238127651924</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
         <v>84</v>
@@ -13208,7 +13206,7 @@
         <v>-0.41428769672334337</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
         <v>85</v>
@@ -13218,7 +13216,7 @@
         <v>-0.28852205570150607</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
         <v>86</v>
@@ -13238,7 +13236,7 @@
         <v>-0.63127177684185787</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
         <v>89</v>
@@ -13248,7 +13246,7 @@
         <v>-1.0056981012549846</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
         <v>89</v>
@@ -13258,7 +13256,7 @@
         <v>-0.29258279829884465</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
         <v>90</v>
@@ -13268,7 +13266,7 @@
         <v>-1.4252420643592532</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
         <v>91</v>
@@ -13278,7 +13276,7 @@
         <v>-1.3768981336830493</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
         <v>92</v>
@@ -13288,7 +13286,7 @@
         <v>-0.59953088802459731</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>2</v>
       </c>
@@ -13300,7 +13298,7 @@
         <v>-0.98638764955993763</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>15</v>
       </c>
@@ -13312,7 +13310,7 @@
         <v>-0.35350073586408354</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>16</v>
       </c>
@@ -13324,7 +13322,7 @@
         <v>-1.0760111708047901</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
         <v>95</v>
@@ -13334,7 +13332,7 @@
         <v>-0.4800077057788566</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
         <v>96</v>
@@ -13354,7 +13352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
         <v>97</v>
@@ -13374,7 +13372,7 @@
         <v>0.10536051565782635</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
         <v>98</v>
@@ -13394,7 +13392,7 @@
         <v>-3.3322045101752038</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
         <v>99</v>
@@ -13414,47 +13412,47 @@
         <v>-3.912023005428146</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="29"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="16"/>
       <c r="C169" s="29"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="16"/>
       <c r="C170" s="29"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="16"/>
       <c r="C171" s="29"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="16"/>
       <c r="C172" s="29"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="16"/>
       <c r="C173" s="29"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="29"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="29"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="6"/>
       <c r="B181" s="15"/>
       <c r="C181" s="31"/>
@@ -13474,15 +13472,15 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="26"/>
-    <col min="5" max="5" width="12.7109375" style="23" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="24"/>
+    <col min="1" max="1" width="51.6640625" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" style="26"/>
+    <col min="5" max="5" width="12.6640625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13502,7 +13500,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="11" t="s">
         <v>20</v>
@@ -13522,7 +13520,7 @@
         <v>-0.87546873735389985</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="11" t="s">
         <v>21</v>
@@ -13542,7 +13540,7 @@
         <v>-0.87546873735389985</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -13564,7 +13562,7 @@
         <v>-0.74193734472937733</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -13586,7 +13584,7 @@
         <v>-0.64185388617239481</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -13608,7 +13606,7 @@
         <v>-0.64185388617239481</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="11" t="s">
         <v>25</v>
@@ -13628,7 +13626,7 @@
         <v>-0.47000362924573558</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="11" t="s">
         <v>26</v>
@@ -13648,7 +13646,7 @@
         <v>-0.33647223662121289</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="11" t="s">
         <v>27</v>
@@ -13668,7 +13666,7 @@
         <v>-9.5310179804324893E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="11" t="s">
         <v>28</v>
@@ -13688,12 +13686,12 @@
         <v>-0.1655144384775733</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="29"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="12" t="s">
         <v>29</v>
@@ -13713,7 +13711,7 @@
         <v>-3.713572066704308</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="12" t="s">
         <v>30</v>
@@ -13733,7 +13731,7 @@
         <v>-3.713572066704308</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="12" t="s">
         <v>31</v>
@@ -13753,7 +13751,7 @@
         <v>-3.4965075614664802</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
@@ -13775,7 +13773,7 @@
         <v>-2.9957322735539909</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="12" t="s">
         <v>33</v>
@@ -13795,7 +13793,7 @@
         <v>-1.791759469228055</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="12" t="s">
         <v>34</v>
@@ -13815,13 +13813,13 @@
         <v>-1.9459101490553135</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="12"/>
       <c r="C18" s="30"/>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="13" t="s">
         <v>35</v>
@@ -13841,7 +13839,7 @@
         <v>-3.2580965380214821</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
@@ -13863,7 +13861,7 @@
         <v>-2.4159137783010487</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="13" t="s">
         <v>37</v>
@@ -13883,7 +13881,7 @@
         <v>-1.8562979903656263</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="13" t="s">
         <v>38</v>
@@ -13903,7 +13901,7 @@
         <v>-1.1939224684724346</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="13" t="s">
         <v>39</v>
@@ -13923,7 +13921,7 @@
         <v>-0.18232155679395459</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="13" t="s">
         <v>40</v>
@@ -13943,13 +13941,13 @@
         <v>0.26136476413440751</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="13"/>
       <c r="C25" s="30"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
@@ -13961,7 +13959,7 @@
         <v>-0.96106955033735497</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="14" t="s">
         <v>42</v>
@@ -13981,7 +13979,7 @@
         <v>-1.0986122886681098</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>43</v>
@@ -14001,7 +13999,7 @@
         <v>-0.53062825106217038</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>44</v>
@@ -14021,12 +14019,12 @@
         <v>-9.5310179804324893E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="29"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>6</v>
       </c>
@@ -14048,7 +14046,7 @@
         <v>-0.62057648772510998</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>6</v>
       </c>
@@ -14070,7 +14068,7 @@
         <v>-0.53062825106217038</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="7" t="s">
         <v>47</v>
@@ -14090,7 +14088,7 @@
         <v>-0.74193734472937733</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
         <v>48</v>
@@ -14110,13 +14108,13 @@
         <v>-0.55961578793542277</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="29"/>
       <c r="E35" s="22"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
         <v>49</v>
@@ -14136,7 +14134,7 @@
         <v>-0.26236426446749112</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>7</v>
       </c>
@@ -14158,7 +14156,7 @@
         <v>-0.53062825106217038</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>7</v>
       </c>
@@ -14180,7 +14178,7 @@
         <v>-1.0986122886681098</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="s">
         <v>52</v>
@@ -14200,7 +14198,7 @@
         <v>-1.7227665977411035</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
         <v>53</v>
@@ -14220,7 +14218,7 @@
         <v>-2.0794415416798357</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="s">
         <v>54</v>
@@ -14240,7 +14238,7 @@
         <v>-1.9459101490553135</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="8" t="s">
         <v>55</v>
@@ -14260,12 +14258,12 @@
         <v>-2.0794415416798357</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="29"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="15" t="s">
         <v>56</v>
@@ -14285,7 +14283,7 @@
         <v>-1.3350010667323402</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>7</v>
       </c>
@@ -14307,7 +14305,7 @@
         <v>-3.4657359027997265</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="15" t="s">
         <v>58</v>
@@ -14327,7 +14325,7 @@
         <v>-3.5835189384561099</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="15" t="s">
         <v>59</v>
@@ -14347,7 +14345,7 @@
         <v>-3.8501476017100584</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="15" t="s">
         <v>60</v>
@@ -14367,13 +14365,13 @@
         <v>-3.784189633918261</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="19"/>
       <c r="C49" s="31"/>
       <c r="E49" s="22"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>8</v>
       </c>
@@ -14395,7 +14393,7 @@
         <v>-0.47000362924573558</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="9" t="s">
         <v>62</v>
@@ -14415,7 +14413,7 @@
         <v>-0.2311117209633867</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
         <v>63</v>
@@ -14435,7 +14433,7 @@
         <v>-0.10436001532424288</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="9" t="s">
         <v>64</v>
@@ -14455,7 +14453,7 @@
         <v>-9.950330853168092E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="9" t="s">
         <v>65</v>
@@ -14475,7 +14473,7 @@
         <v>0.127833371509885</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
         <v>66</v>
@@ -14495,7 +14493,7 @@
         <v>8.3381608939051E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
       <c r="B56" s="9" t="s">
         <v>67</v>
@@ -14515,7 +14513,7 @@
         <v>0.31471074483970018</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
         <v>68</v>
@@ -14535,7 +14533,7 @@
         <v>0.22314355131420976</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
         <v>69</v>
@@ -14555,7 +14553,7 @@
         <v>0.28768207245178085</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="s">
         <v>70</v>
@@ -14575,12 +14573,12 @@
         <v>0.28768207245178085</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="29"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
@@ -14599,7 +14597,7 @@
         <v>-0.12221763272424915</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
@@ -14618,7 +14616,7 @@
         <v>-0.24686007793152578</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>9</v>
       </c>
@@ -14637,7 +14635,7 @@
         <v>0.10536051565782635</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>9</v>
       </c>
@@ -14656,7 +14654,7 @@
         <v>6.1875403718087453E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>9</v>
       </c>
@@ -14675,12 +14673,12 @@
         <v>-0.30748469974796072</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="29"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
         <v>71</v>
@@ -14700,7 +14698,7 @@
         <v>-1.4398351280479205</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="17">
         <v>408</v>
@@ -14720,7 +14718,7 @@
         <v>-0.53649337051456858</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
         <v>72</v>
@@ -14740,7 +14738,7 @@
         <v>-0.2776317365982795</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="17">
         <v>400</v>
@@ -14760,7 +14758,7 @@
         <v>-0.22314355131420971</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
         <v>73</v>
@@ -14780,7 +14778,7 @@
         <v>-1.0438040521731147</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="17">
         <v>436</v>
@@ -14800,7 +14798,7 @@
         <v>-0.60976557162089429</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>11</v>
       </c>
@@ -14822,7 +14820,7 @@
         <v>-0.95165787571144633</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>10</v>
       </c>
@@ -14844,7 +14842,7 @@
         <v>-0.85866161903751859</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -14866,7 +14864,7 @@
         <v>-0.77010822169607374</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
         <v>76</v>
@@ -14886,7 +14884,7 @@
         <v>-0.74668794748797507</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
         <v>77</v>
@@ -14906,7 +14904,7 @@
         <v>-0.73236789371322675</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="17">
         <v>476</v>
@@ -14926,7 +14924,7 @@
         <v>-0.72754860727727766</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="17">
         <v>476</v>
@@ -14946,7 +14944,7 @@
         <v>-0.89199803930511046</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
         <v>78</v>
@@ -14966,7 +14964,7 @@
         <v>-0.77932487680099771</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
         <v>79</v>
@@ -14986,7 +14984,7 @@
         <v>0.16251892949777494</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
         <v>80</v>
@@ -15006,7 +15004,7 @@
         <v>-0.10436001532424288</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="17">
         <v>508</v>
@@ -15026,7 +15024,7 @@
         <v>-9.5310179804324893E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
         <v>81</v>
@@ -15046,7 +15044,7 @@
         <v>-1.2089603458369751</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="17">
         <v>5542</v>
@@ -15066,7 +15064,7 @@
         <v>-1.1019400787607843</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
         <v>82</v>
@@ -15086,7 +15084,7 @@
         <v>-0.58221561985266368</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="17">
         <v>574</v>
@@ -15096,7 +15094,7 @@
         <v>-1.2544826593748943</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
         <v>83</v>
@@ -15106,7 +15104,7 @@
         <v>-1.07238127651924</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
         <v>84</v>
@@ -15116,7 +15114,7 @@
         <v>-0.41428769672334337</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
         <v>85</v>
@@ -15126,7 +15124,7 @@
         <v>-0.28852205570150607</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
         <v>86</v>
@@ -15146,17 +15144,17 @@
         <v>-0.45107561936021673</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="29"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="29"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
         <v>71</v>
@@ -15176,7 +15174,7 @@
         <v>-1.5238800240724537</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="17">
         <v>408</v>
@@ -15196,7 +15194,7 @@
         <v>-0.47623417899637172</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
         <v>72</v>
@@ -15216,7 +15214,7 @@
         <v>-0.2776317365982795</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="17">
         <v>400</v>
@@ -15236,7 +15234,7 @@
         <v>-0.28517894223366247</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
         <v>73</v>
@@ -15256,7 +15254,7 @@
         <v>-0.53062825106217038</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="17">
         <v>436</v>
@@ -15276,7 +15274,7 @@
         <v>-0.44468582126144579</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>11</v>
       </c>
@@ -15298,7 +15296,7 @@
         <v>-0.51282362642866364</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>12</v>
       </c>
@@ -15320,7 +15318,7 @@
         <v>-0.49469624183610705</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>11</v>
       </c>
@@ -15342,7 +15340,7 @@
         <v>-0.50077528791248926</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
         <v>76</v>
@@ -15362,7 +15360,7 @@
         <v>-0.49469624183610705</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
         <v>77</v>
@@ -15382,7 +15380,7 @@
         <v>-0.55961578793542277</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="17">
         <v>476</v>
@@ -15402,7 +15400,7 @@
         <v>-0.54812140850968749</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="17">
         <v>476</v>
@@ -15422,7 +15420,7 @@
         <v>-0.77010822169607374</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
         <v>78</v>
@@ -15442,7 +15440,7 @@
         <v>-0.41871033485818493</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
         <v>79</v>
@@ -15462,7 +15460,7 @@
         <v>1.0050335853501506E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
         <v>80</v>
@@ -15482,7 +15480,7 @@
         <v>-9.5310179804324893E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="17">
         <v>508</v>
@@ -15502,7 +15500,7 @@
         <v>-0.10436001532424288</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
         <v>81</v>
@@ -15522,7 +15520,7 @@
         <v>-1.0647107369924282</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="17">
         <v>5542</v>
@@ -15542,7 +15540,7 @@
         <v>-1.0438040521731147</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
         <v>82</v>
@@ -15562,7 +15560,7 @@
         <v>-0.43825493093115531</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="17">
         <v>574</v>
@@ -15572,7 +15570,7 @@
         <v>-1.2544826593748943</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
         <v>83</v>
@@ -15582,7 +15580,7 @@
         <v>-1.07238127651924</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
         <v>84</v>
@@ -15592,7 +15590,7 @@
         <v>-0.41428769672334337</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
         <v>85</v>
@@ -15602,7 +15600,7 @@
         <v>-0.28852205570150607</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
         <v>86</v>
@@ -15622,17 +15620,17 @@
         <v>-0.46373401623214022</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="29"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="29"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
         <v>71</v>
@@ -15652,7 +15650,7 @@
         <v>-1.2947271675944001</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="17">
         <v>408</v>
@@ -15672,7 +15670,7 @@
         <v>1.1394342831883648</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
         <v>72</v>
@@ -15692,7 +15690,7 @@
         <v>3.912023005428146</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="17">
         <v>400</v>
@@ -15712,7 +15710,7 @@
         <v>4.6051701859880918</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
         <v>73</v>
@@ -15732,7 +15730,7 @@
         <v>1.0216512475319812</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="17">
         <v>436</v>
@@ -15752,7 +15750,7 @@
         <v>1.0498221244986776</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>11</v>
       </c>
@@ -15774,7 +15772,7 @@
         <v>0.77652878949899629</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>13</v>
       </c>
@@ -15796,7 +15794,7 @@
         <v>0.82098055206983034</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>11</v>
       </c>
@@ -15818,7 +15816,7 @@
         <v>0.57981849525294205</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
         <v>76</v>
@@ -15838,7 +15836,7 @@
         <v>0.94160853985844484</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
         <v>77</v>
@@ -15858,7 +15856,7 @@
         <v>0.51082562376599072</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="17">
         <v>476</v>
@@ -15878,7 +15876,7 @@
         <v>0.84397007029452897</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="17">
         <v>476</v>
@@ -15898,7 +15896,7 @@
         <v>0.127833371509885</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
         <v>78</v>
@@ -15918,7 +15916,7 @@
         <v>1.0216512475319812</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
         <v>79</v>
@@ -15938,7 +15936,7 @@
         <v>0.23572233352106978</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
         <v>80</v>
@@ -15958,7 +15956,7 @@
         <v>4.1351665567423561</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="17">
         <v>508</v>
@@ -15978,7 +15976,7 @@
         <v>4.2686979493668789</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
         <v>81</v>
@@ -15998,7 +15996,7 @@
         <v>0.91629073187415511</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="17">
         <v>5542</v>
@@ -16018,7 +16016,7 @@
         <v>-0.33647223662121289</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
         <v>82</v>
@@ -16038,7 +16036,7 @@
         <v>0.59783700075562041</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="17">
         <v>574</v>
@@ -16048,7 +16046,7 @@
         <v>-1.2544826593748943</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
         <v>83</v>
@@ -16058,7 +16056,7 @@
         <v>-1.07238127651924</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
         <v>84</v>
@@ -16068,7 +16066,7 @@
         <v>-0.41428769672334337</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
         <v>85</v>
@@ -16078,7 +16076,7 @@
         <v>-0.28852205570150607</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
         <v>86</v>
@@ -16098,12 +16096,12 @@
         <v>-0.63127177684185787</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="29"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="18" t="s">
         <v>87</v>
@@ -16123,7 +16121,7 @@
         <v>-2.9917242521564522</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>14</v>
       </c>
@@ -16145,13 +16143,13 @@
         <v>-3.0233474405869645</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="29"/>
       <c r="E149" s="22"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
         <v>89</v>
@@ -16161,7 +16159,7 @@
         <v>-1.0056981012549846</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
         <v>89</v>
@@ -16171,7 +16169,7 @@
         <v>-0.29258279829884465</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
         <v>90</v>
@@ -16181,7 +16179,7 @@
         <v>-1.4252420643592532</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
         <v>91</v>
@@ -16191,7 +16189,7 @@
         <v>-1.3768981336830493</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
         <v>92</v>
@@ -16201,7 +16199,7 @@
         <v>-0.59953088802459731</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>2</v>
       </c>
@@ -16213,7 +16211,7 @@
         <v>-0.98638764955993763</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>15</v>
       </c>
@@ -16225,7 +16223,7 @@
         <v>-0.35350073586408354</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>16</v>
       </c>
@@ -16237,7 +16235,7 @@
         <v>-1.0760111708047901</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
         <v>95</v>
@@ -16247,7 +16245,7 @@
         <v>-0.4800077057788566</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
         <v>96</v>
@@ -16267,7 +16265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
         <v>97</v>
@@ -16287,7 +16285,7 @@
         <v>0.10536051565782635</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
         <v>98</v>
@@ -16307,7 +16305,7 @@
         <v>-3.3322045101752038</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
         <v>99</v>
@@ -16327,12 +16325,12 @@
         <v>-3.912023005428146</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="29"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
         <v>100</v>
@@ -16352,7 +16350,7 @@
         <v>0.24846135929849955</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
         <v>101</v>
@@ -16372,7 +16370,7 @@
         <v>0.19845093872383823</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
         <v>102</v>
@@ -16392,7 +16390,7 @@
         <v>0.17435338714477774</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
         <v>103</v>
@@ -16412,7 +16410,7 @@
         <v>0.18632957819149354</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>17</v>
       </c>
@@ -16434,7 +16432,7 @@
         <v>0.15082288973458369</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>15</v>
       </c>
@@ -16456,7 +16454,7 @@
         <v>0.22314355131420976</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>18</v>
       </c>
@@ -16478,7 +16476,7 @@
         <v>0.22314355131420976</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
         <v>107</v>
@@ -16488,7 +16486,7 @@
         <v>-0.7422394755395334</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
         <v>108</v>
@@ -16498,7 +16496,7 @@
         <v>-0.85614356273798609</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
         <v>109</v>
@@ -16508,7 +16506,7 @@
         <v>-0.74032840808646949</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
         <v>110</v>
@@ -16518,7 +16516,7 @@
         <v>-0.67252444219346519</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
         <v>111</v>
@@ -16528,7 +16526,7 @@
         <v>-0.79256019848265058</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="29"/>
@@ -16547,15 +16545,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="26"/>
-    <col min="5" max="5" width="12.7109375" style="23" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="24"/>
+    <col min="1" max="1" width="51.6640625" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" style="26"/>
+    <col min="5" max="5" width="12.6640625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -16575,7 +16573,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="11" t="s">
         <v>20</v>
@@ -16595,7 +16593,7 @@
         <v>-0.87546873735389985</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="11" t="s">
         <v>21</v>
@@ -16615,7 +16613,7 @@
         <v>-0.87546873735389985</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -16637,7 +16635,7 @@
         <v>-0.74193734472937733</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -16659,7 +16657,7 @@
         <v>-0.64185388617239481</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -16681,7 +16679,7 @@
         <v>-0.64185388617239481</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="11" t="s">
         <v>25</v>
@@ -16701,7 +16699,7 @@
         <v>-0.47000362924573558</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="11" t="s">
         <v>26</v>
@@ -16721,7 +16719,7 @@
         <v>-0.33647223662121289</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="11" t="s">
         <v>27</v>
@@ -16741,7 +16739,7 @@
         <v>-9.5310179804324893E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="11" t="s">
         <v>28</v>
@@ -16761,12 +16759,12 @@
         <v>-0.1655144384775733</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="29"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="12" t="s">
         <v>29</v>
@@ -16786,7 +16784,7 @@
         <v>-3.713572066704308</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="12" t="s">
         <v>30</v>
@@ -16806,7 +16804,7 @@
         <v>-3.713572066704308</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="12" t="s">
         <v>31</v>
@@ -16826,7 +16824,7 @@
         <v>-3.4965075614664802</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
@@ -16848,7 +16846,7 @@
         <v>-2.9957322735539909</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="12" t="s">
         <v>33</v>
@@ -16868,7 +16866,7 @@
         <v>-1.791759469228055</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="12" t="s">
         <v>34</v>
@@ -16888,13 +16886,13 @@
         <v>-1.9459101490553135</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="12"/>
       <c r="C18" s="30"/>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="13" t="s">
         <v>35</v>
@@ -16914,7 +16912,7 @@
         <v>-3.2580965380214821</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
@@ -16936,7 +16934,7 @@
         <v>-2.4159137783010487</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="13" t="s">
         <v>37</v>
@@ -16956,7 +16954,7 @@
         <v>-1.8562979903656263</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="13" t="s">
         <v>38</v>
@@ -16976,7 +16974,7 @@
         <v>-1.1939224684724346</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="13" t="s">
         <v>39</v>
@@ -16996,7 +16994,7 @@
         <v>-0.18232155679395459</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="13" t="s">
         <v>40</v>
@@ -17016,13 +17014,13 @@
         <v>0.26136476413440751</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="13"/>
       <c r="C25" s="30"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
@@ -17034,7 +17032,7 @@
         <v>-0.96106955033735497</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="14" t="s">
         <v>42</v>
@@ -17054,7 +17052,7 @@
         <v>-1.0986122886681098</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>43</v>
@@ -17074,7 +17072,7 @@
         <v>-0.53062825106217038</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>44</v>
@@ -17094,12 +17092,12 @@
         <v>-9.5310179804324893E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="29"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>6</v>
       </c>
@@ -17121,7 +17119,7 @@
         <v>-0.62057648772510998</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>6</v>
       </c>
@@ -17143,7 +17141,7 @@
         <v>-0.53062825106217038</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="7" t="s">
         <v>47</v>
@@ -17163,7 +17161,7 @@
         <v>-0.74193734472937733</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
         <v>48</v>
@@ -17183,13 +17181,13 @@
         <v>-0.55961578793542277</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="29"/>
       <c r="E35" s="22"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
         <v>49</v>
@@ -17209,7 +17207,7 @@
         <v>-0.26236426446749112</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>7</v>
       </c>
@@ -17231,7 +17229,7 @@
         <v>-0.53062825106217038</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>7</v>
       </c>
@@ -17253,7 +17251,7 @@
         <v>-1.0986122886681098</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="s">
         <v>52</v>
@@ -17273,7 +17271,7 @@
         <v>-1.7227665977411035</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
         <v>53</v>
@@ -17293,7 +17291,7 @@
         <v>-2.0794415416798357</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="s">
         <v>54</v>
@@ -17313,7 +17311,7 @@
         <v>-1.9459101490553135</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="8" t="s">
         <v>55</v>
@@ -17333,12 +17331,12 @@
         <v>-2.0794415416798357</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="29"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="15" t="s">
         <v>56</v>
@@ -17358,7 +17356,7 @@
         <v>-1.3350010667323402</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>7</v>
       </c>
@@ -17380,7 +17378,7 @@
         <v>-3.4657359027997265</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="15" t="s">
         <v>58</v>
@@ -17400,7 +17398,7 @@
         <v>-3.5835189384561099</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="15" t="s">
         <v>59</v>
@@ -17420,7 +17418,7 @@
         <v>-3.8501476017100584</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="15" t="s">
         <v>60</v>
@@ -17440,13 +17438,13 @@
         <v>-3.784189633918261</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="19"/>
       <c r="C49" s="31"/>
       <c r="E49" s="22"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>8</v>
       </c>
@@ -17468,7 +17466,7 @@
         <v>-0.47000362924573558</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="9" t="s">
         <v>62</v>
@@ -17488,7 +17486,7 @@
         <v>-0.2311117209633867</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
         <v>63</v>
@@ -17508,7 +17506,7 @@
         <v>-0.10436001532424288</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="9" t="s">
         <v>64</v>
@@ -17528,7 +17526,7 @@
         <v>-9.950330853168092E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="9" t="s">
         <v>65</v>
@@ -17548,7 +17546,7 @@
         <v>0.127833371509885</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
         <v>66</v>
@@ -17568,7 +17566,7 @@
         <v>8.3381608939051E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
       <c r="B56" s="9" t="s">
         <v>67</v>
@@ -17588,7 +17586,7 @@
         <v>0.31471074483970018</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
         <v>68</v>
@@ -17608,7 +17606,7 @@
         <v>0.22314355131420976</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
         <v>69</v>
@@ -17628,7 +17626,7 @@
         <v>0.28768207245178085</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="s">
         <v>70</v>
@@ -17648,12 +17646,12 @@
         <v>0.28768207245178085</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="29"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
@@ -17672,7 +17670,7 @@
         <v>-0.12221763272424915</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
@@ -17691,7 +17689,7 @@
         <v>-0.24686007793152578</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>9</v>
       </c>
@@ -17710,7 +17708,7 @@
         <v>0.10536051565782635</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>9</v>
       </c>
@@ -17729,7 +17727,7 @@
         <v>6.1875403718087453E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>9</v>
       </c>
@@ -17748,12 +17746,12 @@
         <v>-0.30748469974796072</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="29"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
         <v>71</v>
@@ -17773,7 +17771,7 @@
         <v>-1.4398351280479205</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="17">
         <v>408</v>
@@ -17793,7 +17791,7 @@
         <v>-0.53649337051456858</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
         <v>72</v>
@@ -17813,7 +17811,7 @@
         <v>-0.2776317365982795</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="17">
         <v>400</v>
@@ -17833,7 +17831,7 @@
         <v>-0.22314355131420971</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
         <v>73</v>
@@ -17853,7 +17851,7 @@
         <v>-1.0438040521731147</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="17">
         <v>436</v>
@@ -17873,7 +17871,7 @@
         <v>-0.60976557162089429</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>11</v>
       </c>
@@ -17895,7 +17893,7 @@
         <v>-0.95165787571144633</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>10</v>
       </c>
@@ -17917,7 +17915,7 @@
         <v>-0.85866161903751859</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -17939,7 +17937,7 @@
         <v>-0.77010822169607374</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
         <v>76</v>
@@ -17959,7 +17957,7 @@
         <v>-0.74668794748797507</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
         <v>77</v>
@@ -17979,7 +17977,7 @@
         <v>-0.73236789371322675</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="17">
         <v>476</v>
@@ -17999,7 +17997,7 @@
         <v>-0.72754860727727766</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="17">
         <v>476</v>
@@ -18019,7 +18017,7 @@
         <v>-0.89199803930511046</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
         <v>78</v>
@@ -18039,7 +18037,7 @@
         <v>-0.77932487680099771</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
         <v>79</v>
@@ -18059,7 +18057,7 @@
         <v>0.16251892949777494</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
         <v>80</v>
@@ -18079,7 +18077,7 @@
         <v>-0.10436001532424288</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="17">
         <v>508</v>
@@ -18099,7 +18097,7 @@
         <v>-9.5310179804324893E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
         <v>81</v>
@@ -18119,7 +18117,7 @@
         <v>-1.2089603458369751</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="17">
         <v>5542</v>
@@ -18139,7 +18137,7 @@
         <v>-1.1019400787607843</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
         <v>82</v>
@@ -18159,7 +18157,7 @@
         <v>-0.58221561985266368</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="17">
         <v>574</v>
@@ -18169,7 +18167,7 @@
         <v>-1.2544826593748943</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
         <v>83</v>
@@ -18179,7 +18177,7 @@
         <v>-1.07238127651924</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
         <v>84</v>
@@ -18189,7 +18187,7 @@
         <v>-0.41428769672334337</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
         <v>85</v>
@@ -18199,7 +18197,7 @@
         <v>-0.28852205570150607</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
         <v>86</v>
@@ -18219,17 +18217,17 @@
         <v>-0.45107561936021673</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="29"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="29"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
         <v>71</v>
@@ -18249,7 +18247,7 @@
         <v>-1.5238800240724537</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="17">
         <v>408</v>
@@ -18269,7 +18267,7 @@
         <v>-0.47623417899637172</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
         <v>72</v>
@@ -18289,7 +18287,7 @@
         <v>-0.2776317365982795</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="17">
         <v>400</v>
@@ -18309,7 +18307,7 @@
         <v>-0.28517894223366247</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
         <v>73</v>
@@ -18329,7 +18327,7 @@
         <v>-0.53062825106217038</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="17">
         <v>436</v>
@@ -18349,7 +18347,7 @@
         <v>-0.44468582126144579</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>11</v>
       </c>
@@ -18371,7 +18369,7 @@
         <v>-0.51282362642866364</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>12</v>
       </c>
@@ -18393,7 +18391,7 @@
         <v>-0.49469624183610705</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>11</v>
       </c>
@@ -18415,7 +18413,7 @@
         <v>-0.50077528791248926</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
         <v>76</v>
@@ -18435,7 +18433,7 @@
         <v>-0.49469624183610705</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
         <v>77</v>
@@ -18455,7 +18453,7 @@
         <v>-0.55961578793542277</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="17">
         <v>476</v>
@@ -18475,7 +18473,7 @@
         <v>-0.54812140850968749</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="17">
         <v>476</v>
@@ -18495,7 +18493,7 @@
         <v>-0.77010822169607374</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
         <v>78</v>
@@ -18515,7 +18513,7 @@
         <v>-0.41871033485818493</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
         <v>79</v>
@@ -18535,7 +18533,7 @@
         <v>1.0050335853501506E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
         <v>80</v>
@@ -18555,7 +18553,7 @@
         <v>-9.5310179804324893E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="17">
         <v>508</v>
@@ -18575,7 +18573,7 @@
         <v>-0.10436001532424288</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
         <v>81</v>
@@ -18595,7 +18593,7 @@
         <v>-1.0647107369924282</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="17">
         <v>5542</v>
@@ -18615,7 +18613,7 @@
         <v>-1.0438040521731147</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
         <v>82</v>
@@ -18635,7 +18633,7 @@
         <v>-0.43825493093115531</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="17">
         <v>574</v>
@@ -18645,7 +18643,7 @@
         <v>-1.2544826593748943</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
         <v>83</v>
@@ -18655,7 +18653,7 @@
         <v>-1.07238127651924</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
         <v>84</v>
@@ -18665,7 +18663,7 @@
         <v>-0.41428769672334337</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
         <v>85</v>
@@ -18675,7 +18673,7 @@
         <v>-0.28852205570150607</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
         <v>86</v>
@@ -18695,17 +18693,17 @@
         <v>-0.46373401623214022</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="29"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="29"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
         <v>71</v>
@@ -18725,7 +18723,7 @@
         <v>-1.2947271675944001</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="17">
         <v>408</v>
@@ -18745,7 +18743,7 @@
         <v>1.1394342831883648</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
         <v>72</v>
@@ -18765,7 +18763,7 @@
         <v>3.912023005428146</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="17">
         <v>400</v>
@@ -18785,7 +18783,7 @@
         <v>4.6051701859880918</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
         <v>73</v>
@@ -18805,7 +18803,7 @@
         <v>1.0216512475319812</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="17">
         <v>436</v>
@@ -18825,7 +18823,7 @@
         <v>1.0498221244986776</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>11</v>
       </c>
@@ -18847,7 +18845,7 @@
         <v>0.77652878949899629</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>13</v>
       </c>
@@ -18869,7 +18867,7 @@
         <v>0.82098055206983034</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>11</v>
       </c>
@@ -18891,7 +18889,7 @@
         <v>0.57981849525294205</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
         <v>76</v>
@@ -18911,7 +18909,7 @@
         <v>0.94160853985844484</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
         <v>77</v>
@@ -18931,7 +18929,7 @@
         <v>0.51082562376599072</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="17">
         <v>476</v>
@@ -18951,7 +18949,7 @@
         <v>0.84397007029452897</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="17">
         <v>476</v>
@@ -18971,7 +18969,7 @@
         <v>0.127833371509885</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
         <v>78</v>
@@ -18991,7 +18989,7 @@
         <v>1.0216512475319812</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
         <v>79</v>
@@ -19011,7 +19009,7 @@
         <v>0.23572233352106978</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
         <v>80</v>
@@ -19031,7 +19029,7 @@
         <v>4.1351665567423561</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="17">
         <v>508</v>
@@ -19051,7 +19049,7 @@
         <v>4.2686979493668789</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
         <v>81</v>
@@ -19071,7 +19069,7 @@
         <v>0.91629073187415511</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="17">
         <v>5542</v>
@@ -19091,7 +19089,7 @@
         <v>-0.33647223662121289</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
         <v>82</v>
@@ -19111,7 +19109,7 @@
         <v>0.59783700075562041</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="17">
         <v>574</v>
@@ -19121,7 +19119,7 @@
         <v>-1.2544826593748943</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
         <v>83</v>
@@ -19131,7 +19129,7 @@
         <v>-1.07238127651924</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
         <v>84</v>
@@ -19141,7 +19139,7 @@
         <v>-0.41428769672334337</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
         <v>85</v>
@@ -19151,7 +19149,7 @@
         <v>-0.28852205570150607</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
         <v>86</v>
@@ -19171,12 +19169,12 @@
         <v>-0.63127177684185787</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="29"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="18" t="s">
         <v>87</v>
@@ -19196,7 +19194,7 @@
         <v>-2.9917242521564522</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>14</v>
       </c>
@@ -19218,13 +19216,13 @@
         <v>-3.0233474405869645</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="29"/>
       <c r="E149" s="22"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
         <v>89</v>
@@ -19234,7 +19232,7 @@
         <v>-1.0056981012549846</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
         <v>89</v>
@@ -19244,7 +19242,7 @@
         <v>-0.29258279829884465</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
         <v>90</v>
@@ -19254,7 +19252,7 @@
         <v>-1.4252420643592532</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
         <v>91</v>
@@ -19264,7 +19262,7 @@
         <v>-1.3768981336830493</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
         <v>92</v>
@@ -19274,7 +19272,7 @@
         <v>-0.59953088802459731</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>2</v>
       </c>
@@ -19286,7 +19284,7 @@
         <v>-0.98638764955993763</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>15</v>
       </c>
@@ -19298,7 +19296,7 @@
         <v>-0.35350073586408354</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>16</v>
       </c>
@@ -19310,7 +19308,7 @@
         <v>-1.0760111708047901</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
         <v>95</v>
@@ -19320,7 +19318,7 @@
         <v>-0.4800077057788566</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
         <v>96</v>
@@ -19340,7 +19338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
         <v>97</v>
@@ -19360,7 +19358,7 @@
         <v>0.10536051565782635</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
         <v>98</v>
@@ -19380,7 +19378,7 @@
         <v>-3.3322045101752038</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
         <v>99</v>
@@ -19400,12 +19398,12 @@
         <v>-3.912023005428146</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="29"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
         <v>100</v>
@@ -19425,7 +19423,7 @@
         <v>0.24846135929849955</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
         <v>101</v>
@@ -19445,7 +19443,7 @@
         <v>0.19845093872383823</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
         <v>102</v>
@@ -19465,7 +19463,7 @@
         <v>0.17435338714477774</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
         <v>103</v>
@@ -19485,7 +19483,7 @@
         <v>0.18632957819149354</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>17</v>
       </c>
@@ -19507,7 +19505,7 @@
         <v>0.15082288973458369</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>15</v>
       </c>
@@ -19529,7 +19527,7 @@
         <v>0.22314355131420976</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>18</v>
       </c>
@@ -19551,7 +19549,7 @@
         <v>0.22314355131420976</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
         <v>107</v>
@@ -19561,7 +19559,7 @@
         <v>-0.7422394755395334</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
         <v>108</v>
@@ -19571,7 +19569,7 @@
         <v>-0.85614356273798609</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
         <v>109</v>
@@ -19581,7 +19579,7 @@
         <v>-0.74032840808646949</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
         <v>110</v>
@@ -19591,7 +19589,7 @@
         <v>-0.67252444219346519</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
         <v>111</v>
@@ -19601,7 +19599,7 @@
         <v>-0.79256019848265058</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="29"/>
@@ -19620,15 +19618,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="26"/>
-    <col min="5" max="5" width="12.7109375" style="23" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="24"/>
+    <col min="1" max="1" width="51.6640625" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" style="26"/>
+    <col min="5" max="5" width="12.6640625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -19648,7 +19646,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="11" t="s">
         <v>20</v>
@@ -19668,7 +19666,7 @@
         <v>-0.87546873735389985</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="11" t="s">
         <v>21</v>
@@ -19688,7 +19686,7 @@
         <v>-0.87546873735389985</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -19710,7 +19708,7 @@
         <v>-0.74193734472937733</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -19732,7 +19730,7 @@
         <v>-0.64185388617239481</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -19754,7 +19752,7 @@
         <v>-0.64185388617239481</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="11" t="s">
         <v>25</v>
@@ -19774,7 +19772,7 @@
         <v>-0.47000362924573558</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="11" t="s">
         <v>26</v>
@@ -19794,7 +19792,7 @@
         <v>-0.33647223662121289</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="11" t="s">
         <v>27</v>
@@ -19814,7 +19812,7 @@
         <v>-9.5310179804324893E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="11" t="s">
         <v>28</v>
@@ -19834,12 +19832,12 @@
         <v>-0.1655144384775733</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="29"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="12" t="s">
         <v>29</v>
@@ -19859,7 +19857,7 @@
         <v>-3.713572066704308</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="12" t="s">
         <v>30</v>
@@ -19879,7 +19877,7 @@
         <v>-3.713572066704308</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="12" t="s">
         <v>31</v>
@@ -19899,7 +19897,7 @@
         <v>-3.4965075614664802</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
@@ -19921,7 +19919,7 @@
         <v>-2.9957322735539909</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="12" t="s">
         <v>33</v>
@@ -19941,7 +19939,7 @@
         <v>-1.791759469228055</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="12" t="s">
         <v>34</v>
@@ -19961,13 +19959,13 @@
         <v>-1.9459101490553135</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="12"/>
       <c r="C18" s="30"/>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="13" t="s">
         <v>35</v>
@@ -19987,7 +19985,7 @@
         <v>-3.2580965380214821</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
@@ -20009,7 +20007,7 @@
         <v>-2.4159137783010487</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="13" t="s">
         <v>37</v>
@@ -20029,7 +20027,7 @@
         <v>-1.8562979903656263</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="13" t="s">
         <v>38</v>
@@ -20049,7 +20047,7 @@
         <v>-1.1939224684724346</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="13" t="s">
         <v>39</v>
@@ -20069,7 +20067,7 @@
         <v>-0.18232155679395459</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="13" t="s">
         <v>40</v>
@@ -20089,13 +20087,13 @@
         <v>0.26136476413440751</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="13"/>
       <c r="C25" s="30"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
@@ -20107,7 +20105,7 @@
         <v>-0.96106955033735497</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="14" t="s">
         <v>42</v>
@@ -20127,7 +20125,7 @@
         <v>-1.0986122886681098</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>43</v>
@@ -20147,7 +20145,7 @@
         <v>-0.53062825106217038</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>44</v>
@@ -20167,12 +20165,12 @@
         <v>-9.5310179804324893E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="29"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>6</v>
       </c>
@@ -20194,7 +20192,7 @@
         <v>-0.62057648772510998</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>6</v>
       </c>
@@ -20216,7 +20214,7 @@
         <v>-0.53062825106217038</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="7" t="s">
         <v>47</v>
@@ -20236,7 +20234,7 @@
         <v>-0.74193734472937733</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
         <v>48</v>
@@ -20256,13 +20254,13 @@
         <v>-0.55961578793542277</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="29"/>
       <c r="E35" s="22"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
         <v>49</v>
@@ -20282,7 +20280,7 @@
         <v>-0.26236426446749112</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>7</v>
       </c>
@@ -20304,7 +20302,7 @@
         <v>-0.53062825106217038</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>7</v>
       </c>
@@ -20326,7 +20324,7 @@
         <v>-1.0986122886681098</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="s">
         <v>52</v>
@@ -20346,7 +20344,7 @@
         <v>-1.7227665977411035</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
         <v>53</v>
@@ -20366,7 +20364,7 @@
         <v>-2.0794415416798357</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="s">
         <v>54</v>
@@ -20386,7 +20384,7 @@
         <v>-1.9459101490553135</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="8" t="s">
         <v>55</v>
@@ -20406,12 +20404,12 @@
         <v>-2.0794415416798357</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="29"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="15" t="s">
         <v>56</v>
@@ -20431,7 +20429,7 @@
         <v>-1.3350010667323402</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>7</v>
       </c>
@@ -20453,7 +20451,7 @@
         <v>-3.4657359027997265</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="15" t="s">
         <v>58</v>
@@ -20473,7 +20471,7 @@
         <v>-3.5835189384561099</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="15" t="s">
         <v>59</v>
@@ -20493,7 +20491,7 @@
         <v>-3.8501476017100584</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="15" t="s">
         <v>60</v>
@@ -20513,13 +20511,13 @@
         <v>-3.784189633918261</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="19"/>
       <c r="C49" s="31"/>
       <c r="E49" s="22"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>8</v>
       </c>
@@ -20541,7 +20539,7 @@
         <v>-0.47000362924573558</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="9" t="s">
         <v>62</v>
@@ -20561,7 +20559,7 @@
         <v>-0.2311117209633867</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
         <v>63</v>
@@ -20581,7 +20579,7 @@
         <v>-0.10436001532424288</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="9" t="s">
         <v>64</v>
@@ -20601,7 +20599,7 @@
         <v>-9.950330853168092E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="9" t="s">
         <v>65</v>
@@ -20621,7 +20619,7 @@
         <v>0.127833371509885</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
         <v>66</v>
@@ -20641,7 +20639,7 @@
         <v>8.3381608939051E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
       <c r="B56" s="9" t="s">
         <v>67</v>
@@ -20661,7 +20659,7 @@
         <v>0.31471074483970018</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
         <v>68</v>
@@ -20681,7 +20679,7 @@
         <v>0.22314355131420976</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
         <v>69</v>
@@ -20701,7 +20699,7 @@
         <v>0.28768207245178085</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="s">
         <v>70</v>
@@ -20721,12 +20719,12 @@
         <v>0.28768207245178085</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="29"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
@@ -20745,7 +20743,7 @@
         <v>-0.12221763272424915</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
@@ -20764,7 +20762,7 @@
         <v>-0.24686007793152578</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>9</v>
       </c>
@@ -20783,7 +20781,7 @@
         <v>0.10536051565782635</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>9</v>
       </c>
@@ -20802,7 +20800,7 @@
         <v>6.1875403718087453E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>9</v>
       </c>
@@ -20821,12 +20819,12 @@
         <v>-0.30748469974796072</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="29"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
         <v>71</v>
@@ -20846,7 +20844,7 @@
         <v>-1.4398351280479205</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="17">
         <v>408</v>
@@ -20866,7 +20864,7 @@
         <v>-0.53649337051456858</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
         <v>72</v>
@@ -20886,7 +20884,7 @@
         <v>-0.2776317365982795</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="17">
         <v>400</v>
@@ -20906,7 +20904,7 @@
         <v>-0.22314355131420971</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
         <v>73</v>
@@ -20926,7 +20924,7 @@
         <v>-1.0438040521731147</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="17">
         <v>436</v>
@@ -20946,7 +20944,7 @@
         <v>-0.60976557162089429</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>11</v>
       </c>
@@ -20968,7 +20966,7 @@
         <v>-0.95165787571144633</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>10</v>
       </c>
@@ -20990,7 +20988,7 @@
         <v>-0.85866161903751859</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -21012,7 +21010,7 @@
         <v>-0.77010822169607374</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
         <v>76</v>
@@ -21032,7 +21030,7 @@
         <v>-0.74668794748797507</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
         <v>77</v>
@@ -21052,7 +21050,7 @@
         <v>-0.73236789371322675</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="17">
         <v>476</v>
@@ -21072,7 +21070,7 @@
         <v>-0.72754860727727766</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="17">
         <v>476</v>
@@ -21092,7 +21090,7 @@
         <v>-0.89199803930511046</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
         <v>78</v>
@@ -21112,7 +21110,7 @@
         <v>-0.77932487680099771</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
         <v>79</v>
@@ -21132,7 +21130,7 @@
         <v>0.16251892949777494</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
         <v>80</v>
@@ -21152,7 +21150,7 @@
         <v>-0.10436001532424288</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="17">
         <v>508</v>
@@ -21172,7 +21170,7 @@
         <v>-9.5310179804324893E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
         <v>81</v>
@@ -21192,7 +21190,7 @@
         <v>-1.2089603458369751</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="17">
         <v>5542</v>
@@ -21212,7 +21210,7 @@
         <v>-1.1019400787607843</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
         <v>82</v>
@@ -21232,7 +21230,7 @@
         <v>-0.58221561985266368</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="17">
         <v>574</v>
@@ -21242,7 +21240,7 @@
         <v>-1.2544826593748943</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
         <v>83</v>
@@ -21252,7 +21250,7 @@
         <v>-1.07238127651924</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
         <v>84</v>
@@ -21262,7 +21260,7 @@
         <v>-0.41428769672334337</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
         <v>85</v>
@@ -21272,7 +21270,7 @@
         <v>-0.28852205570150607</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
         <v>86</v>
@@ -21292,17 +21290,17 @@
         <v>-0.45107561936021673</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="29"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="29"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
         <v>71</v>
@@ -21322,7 +21320,7 @@
         <v>-1.5238800240724537</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="17">
         <v>408</v>
@@ -21342,7 +21340,7 @@
         <v>-0.47623417899637172</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
         <v>72</v>
@@ -21362,7 +21360,7 @@
         <v>-0.2776317365982795</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="17">
         <v>400</v>
@@ -21382,7 +21380,7 @@
         <v>-0.28517894223366247</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
         <v>73</v>
@@ -21402,7 +21400,7 @@
         <v>-0.53062825106217038</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="17">
         <v>436</v>
@@ -21422,7 +21420,7 @@
         <v>-0.44468582126144579</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>11</v>
       </c>
@@ -21444,7 +21442,7 @@
         <v>-0.51282362642866364</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>12</v>
       </c>
@@ -21466,7 +21464,7 @@
         <v>-0.49469624183610705</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>11</v>
       </c>
@@ -21488,7 +21486,7 @@
         <v>-0.50077528791248926</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
         <v>76</v>
@@ -21508,7 +21506,7 @@
         <v>-0.49469624183610705</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
         <v>77</v>
@@ -21528,7 +21526,7 @@
         <v>-0.55961578793542277</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="17">
         <v>476</v>
@@ -21548,7 +21546,7 @@
         <v>-0.54812140850968749</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="17">
         <v>476</v>
@@ -21568,7 +21566,7 @@
         <v>-0.77010822169607374</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
         <v>78</v>
@@ -21588,7 +21586,7 @@
         <v>-0.41871033485818493</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
         <v>79</v>
@@ -21608,7 +21606,7 @@
         <v>1.0050335853501506E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
         <v>80</v>
@@ -21628,7 +21626,7 @@
         <v>-9.5310179804324893E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="17">
         <v>508</v>
@@ -21648,7 +21646,7 @@
         <v>-0.10436001532424288</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
         <v>81</v>
@@ -21668,7 +21666,7 @@
         <v>-1.0647107369924282</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="17">
         <v>5542</v>
@@ -21688,7 +21686,7 @@
         <v>-1.0438040521731147</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
         <v>82</v>
@@ -21708,7 +21706,7 @@
         <v>-0.43825493093115531</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="17">
         <v>574</v>
@@ -21718,7 +21716,7 @@
         <v>-1.2544826593748943</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
         <v>83</v>
@@ -21728,7 +21726,7 @@
         <v>-1.07238127651924</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
         <v>84</v>
@@ -21738,7 +21736,7 @@
         <v>-0.41428769672334337</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
         <v>85</v>
@@ -21748,7 +21746,7 @@
         <v>-0.28852205570150607</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
         <v>86</v>
@@ -21768,17 +21766,17 @@
         <v>-0.46373401623214022</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="29"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="29"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
         <v>71</v>
@@ -21798,7 +21796,7 @@
         <v>-1.2947271675944001</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="17">
         <v>408</v>
@@ -21818,7 +21816,7 @@
         <v>1.1394342831883648</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
         <v>72</v>
@@ -21838,7 +21836,7 @@
         <v>3.912023005428146</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="17">
         <v>400</v>
@@ -21858,7 +21856,7 @@
         <v>4.6051701859880918</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
         <v>73</v>
@@ -21878,7 +21876,7 @@
         <v>1.0216512475319812</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="17">
         <v>436</v>
@@ -21898,7 +21896,7 @@
         <v>1.0498221244986776</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>11</v>
       </c>
@@ -21920,7 +21918,7 @@
         <v>0.77652878949899629</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>13</v>
       </c>
@@ -21942,7 +21940,7 @@
         <v>0.82098055206983034</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>11</v>
       </c>
@@ -21964,7 +21962,7 @@
         <v>0.57981849525294205</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
         <v>76</v>
@@ -21984,7 +21982,7 @@
         <v>0.94160853985844484</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
         <v>77</v>
@@ -22004,7 +22002,7 @@
         <v>0.51082562376599072</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="17">
         <v>476</v>
@@ -22024,7 +22022,7 @@
         <v>0.84397007029452897</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="17">
         <v>476</v>
@@ -22044,7 +22042,7 @@
         <v>0.127833371509885</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
         <v>78</v>
@@ -22064,7 +22062,7 @@
         <v>1.0216512475319812</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
         <v>79</v>
@@ -22084,7 +22082,7 @@
         <v>0.23572233352106978</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
         <v>80</v>
@@ -22104,7 +22102,7 @@
         <v>4.1351665567423561</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="17">
         <v>508</v>
@@ -22124,7 +22122,7 @@
         <v>4.2686979493668789</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
         <v>81</v>
@@ -22144,7 +22142,7 @@
         <v>0.91629073187415511</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="17">
         <v>5542</v>
@@ -22164,7 +22162,7 @@
         <v>-0.33647223662121289</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
         <v>82</v>
@@ -22184,7 +22182,7 @@
         <v>0.59783700075562041</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="17">
         <v>574</v>
@@ -22194,7 +22192,7 @@
         <v>-1.2544826593748943</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
         <v>83</v>
@@ -22204,7 +22202,7 @@
         <v>-1.07238127651924</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
         <v>84</v>
@@ -22214,7 +22212,7 @@
         <v>-0.41428769672334337</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
         <v>85</v>
@@ -22224,7 +22222,7 @@
         <v>-0.28852205570150607</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
         <v>86</v>
@@ -22244,12 +22242,12 @@
         <v>-0.63127177684185787</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="29"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="18" t="s">
         <v>87</v>
@@ -22269,7 +22267,7 @@
         <v>-2.9917242521564522</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>14</v>
       </c>
@@ -22291,13 +22289,13 @@
         <v>-3.0233474405869645</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="29"/>
       <c r="E149" s="22"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
         <v>89</v>
@@ -22307,7 +22305,7 @@
         <v>-1.0056981012549846</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
         <v>89</v>
@@ -22317,7 +22315,7 @@
         <v>-0.29258279829884465</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
         <v>90</v>
@@ -22327,7 +22325,7 @@
         <v>-1.4252420643592532</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
         <v>91</v>
@@ -22337,7 +22335,7 @@
         <v>-1.3768981336830493</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
         <v>92</v>
@@ -22347,7 +22345,7 @@
         <v>-0.59953088802459731</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>2</v>
       </c>
@@ -22359,7 +22357,7 @@
         <v>-0.98638764955993763</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>15</v>
       </c>
@@ -22371,7 +22369,7 @@
         <v>-0.35350073586408354</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>16</v>
       </c>
@@ -22383,7 +22381,7 @@
         <v>-1.0760111708047901</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
         <v>95</v>
@@ -22393,7 +22391,7 @@
         <v>-0.4800077057788566</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
         <v>96</v>
@@ -22413,7 +22411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
         <v>97</v>
@@ -22433,7 +22431,7 @@
         <v>0.10536051565782635</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
         <v>98</v>
@@ -22453,7 +22451,7 @@
         <v>-3.3322045101752038</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
         <v>99</v>
@@ -22473,12 +22471,12 @@
         <v>-3.912023005428146</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="29"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
         <v>100</v>
@@ -22498,7 +22496,7 @@
         <v>0.24846135929849955</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
         <v>101</v>
@@ -22518,7 +22516,7 @@
         <v>0.19845093872383823</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
         <v>102</v>
@@ -22538,7 +22536,7 @@
         <v>0.17435338714477774</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
         <v>103</v>
@@ -22558,7 +22556,7 @@
         <v>0.18632957819149354</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>17</v>
       </c>
@@ -22580,7 +22578,7 @@
         <v>0.15082288973458369</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>15</v>
       </c>
@@ -22602,7 +22600,7 @@
         <v>0.22314355131420976</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>18</v>
       </c>
@@ -22624,7 +22622,7 @@
         <v>0.22314355131420976</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
         <v>107</v>
@@ -22634,7 +22632,7 @@
         <v>-0.7422394755395334</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
         <v>108</v>
@@ -22644,7 +22642,7 @@
         <v>-0.85614356273798609</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
         <v>109</v>
@@ -22654,7 +22652,7 @@
         <v>-0.74032840808646949</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
         <v>110</v>
@@ -22664,7 +22662,7 @@
         <v>-0.67252444219346519</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
         <v>111</v>
@@ -22674,7 +22672,7 @@
         <v>-0.79256019848265058</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="29"/>
@@ -22693,15 +22691,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="26"/>
-    <col min="5" max="5" width="12.7109375" style="23" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="24"/>
+    <col min="1" max="1" width="51.6640625" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" style="26"/>
+    <col min="5" max="5" width="12.6640625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -22721,7 +22719,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="11" t="s">
         <v>20</v>
@@ -22741,7 +22739,7 @@
         <v>-0.87546873735389985</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="11" t="s">
         <v>21</v>
@@ -22761,7 +22759,7 @@
         <v>-0.87546873735389985</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -22783,7 +22781,7 @@
         <v>-0.74193734472937733</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -22805,7 +22803,7 @@
         <v>-0.64185388617239481</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -22827,7 +22825,7 @@
         <v>-0.64185388617239481</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="11" t="s">
         <v>25</v>
@@ -22847,7 +22845,7 @@
         <v>-0.47000362924573558</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="11" t="s">
         <v>26</v>
@@ -22867,7 +22865,7 @@
         <v>-0.33647223662121289</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="11" t="s">
         <v>27</v>
@@ -22887,7 +22885,7 @@
         <v>-9.5310179804324893E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="11" t="s">
         <v>28</v>
@@ -22907,12 +22905,12 @@
         <v>-0.1655144384775733</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="29"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="12" t="s">
         <v>29</v>
@@ -22932,7 +22930,7 @@
         <v>-3.713572066704308</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="12" t="s">
         <v>30</v>
@@ -22952,7 +22950,7 @@
         <v>-3.713572066704308</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="12" t="s">
         <v>31</v>
@@ -22972,7 +22970,7 @@
         <v>-3.4965075614664802</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
@@ -22994,7 +22992,7 @@
         <v>-2.9957322735539909</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="12" t="s">
         <v>33</v>
@@ -23014,7 +23012,7 @@
         <v>-1.791759469228055</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="12" t="s">
         <v>34</v>
@@ -23034,13 +23032,13 @@
         <v>-1.9459101490553135</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="12"/>
       <c r="C18" s="30"/>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="13" t="s">
         <v>35</v>
@@ -23060,7 +23058,7 @@
         <v>-3.2580965380214821</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
@@ -23082,7 +23080,7 @@
         <v>-2.4159137783010487</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="13" t="s">
         <v>37</v>
@@ -23102,7 +23100,7 @@
         <v>-1.8562979903656263</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="13" t="s">
         <v>38</v>
@@ -23122,7 +23120,7 @@
         <v>-1.1939224684724346</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="13" t="s">
         <v>39</v>
@@ -23142,7 +23140,7 @@
         <v>-0.18232155679395459</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="13" t="s">
         <v>40</v>
@@ -23162,13 +23160,13 @@
         <v>0.26136476413440751</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="13"/>
       <c r="C25" s="30"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
@@ -23180,7 +23178,7 @@
         <v>-0.96106955033735497</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="14" t="s">
         <v>42</v>
@@ -23200,7 +23198,7 @@
         <v>-1.0986122886681098</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>43</v>
@@ -23220,7 +23218,7 @@
         <v>-0.53062825106217038</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>44</v>
@@ -23240,12 +23238,12 @@
         <v>-9.5310179804324893E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="29"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>6</v>
       </c>
@@ -23267,7 +23265,7 @@
         <v>-0.62057648772510998</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>6</v>
       </c>
@@ -23289,7 +23287,7 @@
         <v>-0.53062825106217038</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="7" t="s">
         <v>47</v>
@@ -23309,7 +23307,7 @@
         <v>-0.74193734472937733</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
         <v>48</v>
@@ -23329,13 +23327,13 @@
         <v>-0.55961578793542277</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="29"/>
       <c r="E35" s="22"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
         <v>49</v>
@@ -23355,7 +23353,7 @@
         <v>-0.26236426446749112</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>7</v>
       </c>
@@ -23377,7 +23375,7 @@
         <v>-0.53062825106217038</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>7</v>
       </c>
@@ -23399,7 +23397,7 @@
         <v>-1.0986122886681098</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="s">
         <v>52</v>
@@ -23419,7 +23417,7 @@
         <v>-1.7227665977411035</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
         <v>53</v>
@@ -23439,7 +23437,7 @@
         <v>-2.0794415416798357</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="s">
         <v>54</v>
@@ -23459,7 +23457,7 @@
         <v>-1.9459101490553135</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="8" t="s">
         <v>55</v>
@@ -23479,12 +23477,12 @@
         <v>-2.0794415416798357</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="29"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="15" t="s">
         <v>56</v>
@@ -23504,7 +23502,7 @@
         <v>-1.3350010667323402</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>7</v>
       </c>
@@ -23526,7 +23524,7 @@
         <v>-3.4657359027997265</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="15" t="s">
         <v>58</v>
@@ -23546,7 +23544,7 @@
         <v>-3.5835189384561099</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="15" t="s">
         <v>59</v>
@@ -23566,7 +23564,7 @@
         <v>-3.8501476017100584</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="15" t="s">
         <v>60</v>
@@ -23586,13 +23584,13 @@
         <v>-3.784189633918261</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="19"/>
       <c r="C49" s="31"/>
       <c r="E49" s="22"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>8</v>
       </c>
@@ -23614,7 +23612,7 @@
         <v>-0.47000362924573558</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="9" t="s">
         <v>62</v>
@@ -23634,7 +23632,7 @@
         <v>-0.2311117209633867</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
         <v>63</v>
@@ -23654,7 +23652,7 @@
         <v>-0.10436001532424288</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="9" t="s">
         <v>64</v>
@@ -23674,7 +23672,7 @@
         <v>-9.950330853168092E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="9" t="s">
         <v>65</v>
@@ -23694,7 +23692,7 @@
         <v>0.127833371509885</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
         <v>66</v>
@@ -23714,7 +23712,7 @@
         <v>8.3381608939051E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
       <c r="B56" s="9" t="s">
         <v>67</v>
@@ -23734,7 +23732,7 @@
         <v>0.31471074483970018</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
         <v>68</v>
@@ -23754,7 +23752,7 @@
         <v>0.22314355131420976</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
         <v>69</v>
@@ -23774,7 +23772,7 @@
         <v>0.28768207245178085</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="s">
         <v>70</v>
@@ -23794,12 +23792,12 @@
         <v>0.28768207245178085</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="29"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
@@ -23818,7 +23816,7 @@
         <v>-0.12221763272424915</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
@@ -23837,7 +23835,7 @@
         <v>-0.24686007793152578</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>9</v>
       </c>
@@ -23856,7 +23854,7 @@
         <v>0.10536051565782635</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>9</v>
       </c>
@@ -23875,7 +23873,7 @@
         <v>6.1875403718087453E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>9</v>
       </c>
@@ -23894,12 +23892,12 @@
         <v>-0.30748469974796072</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="29"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
         <v>71</v>
@@ -23919,7 +23917,7 @@
         <v>-1.4398351280479205</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="17">
         <v>408</v>
@@ -23939,7 +23937,7 @@
         <v>-0.53649337051456858</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
         <v>72</v>
@@ -23959,7 +23957,7 @@
         <v>-0.2776317365982795</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="17">
         <v>400</v>
@@ -23979,7 +23977,7 @@
         <v>-0.22314355131420971</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
         <v>73</v>
@@ -23999,7 +23997,7 @@
         <v>-1.0438040521731147</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="17">
         <v>436</v>
@@ -24019,7 +24017,7 @@
         <v>-0.60976557162089429</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>11</v>
       </c>
@@ -24041,7 +24039,7 @@
         <v>-0.95165787571144633</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>10</v>
       </c>
@@ -24063,7 +24061,7 @@
         <v>-0.85866161903751859</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -24085,7 +24083,7 @@
         <v>-0.77010822169607374</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
         <v>76</v>
@@ -24105,7 +24103,7 @@
         <v>-0.74668794748797507</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
         <v>77</v>
@@ -24125,7 +24123,7 @@
         <v>-0.73236789371322675</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="17">
         <v>476</v>
@@ -24145,7 +24143,7 @@
         <v>-0.72754860727727766</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="17">
         <v>476</v>
@@ -24165,7 +24163,7 @@
         <v>-0.89199803930511046</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
         <v>78</v>
@@ -24185,7 +24183,7 @@
         <v>-0.77932487680099771</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
         <v>79</v>
@@ -24205,7 +24203,7 @@
         <v>0.16251892949777494</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
         <v>80</v>
@@ -24225,7 +24223,7 @@
         <v>-0.10436001532424288</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="17">
         <v>508</v>
@@ -24245,7 +24243,7 @@
         <v>-9.5310179804324893E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
         <v>81</v>
@@ -24265,7 +24263,7 @@
         <v>-1.2089603458369751</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="17">
         <v>5542</v>
@@ -24285,7 +24283,7 @@
         <v>-1.1019400787607843</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
         <v>82</v>
@@ -24305,7 +24303,7 @@
         <v>-0.58221561985266368</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="17">
         <v>574</v>
@@ -24315,7 +24313,7 @@
         <v>-1.2544826593748943</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
         <v>83</v>
@@ -24325,7 +24323,7 @@
         <v>-1.07238127651924</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
         <v>84</v>
@@ -24335,7 +24333,7 @@
         <v>-0.41428769672334337</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
         <v>85</v>
@@ -24345,7 +24343,7 @@
         <v>-0.28852205570150607</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
         <v>86</v>
@@ -24365,17 +24363,17 @@
         <v>-0.45107561936021673</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="29"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="29"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
         <v>71</v>
@@ -24395,7 +24393,7 @@
         <v>-1.5238800240724537</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="17">
         <v>408</v>
@@ -24415,7 +24413,7 @@
         <v>-0.47623417899637172</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
         <v>72</v>
@@ -24435,7 +24433,7 @@
         <v>-0.2776317365982795</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="17">
         <v>400</v>
@@ -24455,7 +24453,7 @@
         <v>-0.28517894223366247</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
         <v>73</v>
@@ -24475,7 +24473,7 @@
         <v>-0.53062825106217038</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="17">
         <v>436</v>
@@ -24495,7 +24493,7 @@
         <v>-0.44468582126144579</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>11</v>
       </c>
@@ -24517,7 +24515,7 @@
         <v>-0.51282362642866364</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>12</v>
       </c>
@@ -24539,7 +24537,7 @@
         <v>-0.49469624183610705</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>11</v>
       </c>
@@ -24561,7 +24559,7 @@
         <v>-0.50077528791248926</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
         <v>76</v>
@@ -24581,7 +24579,7 @@
         <v>-0.49469624183610705</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
         <v>77</v>
@@ -24601,7 +24599,7 @@
         <v>-0.55961578793542277</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="17">
         <v>476</v>
@@ -24621,7 +24619,7 @@
         <v>-0.54812140850968749</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="17">
         <v>476</v>
@@ -24641,7 +24639,7 @@
         <v>-0.77010822169607374</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
         <v>78</v>
@@ -24661,7 +24659,7 @@
         <v>-0.41871033485818493</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
         <v>79</v>
@@ -24681,7 +24679,7 @@
         <v>1.0050335853501506E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
         <v>80</v>
@@ -24701,7 +24699,7 @@
         <v>-9.5310179804324893E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="17">
         <v>508</v>
@@ -24721,7 +24719,7 @@
         <v>-0.10436001532424288</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
         <v>81</v>
@@ -24741,7 +24739,7 @@
         <v>-1.0647107369924282</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="17">
         <v>5542</v>
@@ -24761,7 +24759,7 @@
         <v>-1.0438040521731147</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
         <v>82</v>
@@ -24781,7 +24779,7 @@
         <v>-0.43825493093115531</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="17">
         <v>574</v>
@@ -24791,7 +24789,7 @@
         <v>-1.2544826593748943</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
         <v>83</v>
@@ -24801,7 +24799,7 @@
         <v>-1.07238127651924</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
         <v>84</v>
@@ -24811,7 +24809,7 @@
         <v>-0.41428769672334337</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
         <v>85</v>
@@ -24821,7 +24819,7 @@
         <v>-0.28852205570150607</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
         <v>86</v>
@@ -24841,17 +24839,17 @@
         <v>-0.46373401623214022</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="29"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="29"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
         <v>71</v>
@@ -24871,7 +24869,7 @@
         <v>-1.2947271675944001</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="17">
         <v>408</v>
@@ -24891,7 +24889,7 @@
         <v>1.1394342831883648</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
         <v>72</v>
@@ -24911,7 +24909,7 @@
         <v>3.912023005428146</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="17">
         <v>400</v>
@@ -24931,7 +24929,7 @@
         <v>4.6051701859880918</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
         <v>73</v>
@@ -24951,7 +24949,7 @@
         <v>1.0216512475319812</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="17">
         <v>436</v>
@@ -24971,7 +24969,7 @@
         <v>1.0498221244986776</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>11</v>
       </c>
@@ -24993,7 +24991,7 @@
         <v>0.77652878949899629</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>13</v>
       </c>
@@ -25015,7 +25013,7 @@
         <v>0.82098055206983034</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>11</v>
       </c>
@@ -25037,7 +25035,7 @@
         <v>0.57981849525294205</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
         <v>76</v>
@@ -25057,7 +25055,7 @@
         <v>0.94160853985844484</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
         <v>77</v>
@@ -25077,7 +25075,7 @@
         <v>0.51082562376599072</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="17">
         <v>476</v>
@@ -25097,7 +25095,7 @@
         <v>0.84397007029452897</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="17">
         <v>476</v>
@@ -25117,7 +25115,7 @@
         <v>0.127833371509885</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
         <v>78</v>
@@ -25137,7 +25135,7 @@
         <v>1.0216512475319812</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
         <v>79</v>
@@ -25157,7 +25155,7 @@
         <v>0.23572233352106978</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
         <v>80</v>
@@ -25177,7 +25175,7 @@
         <v>4.1351665567423561</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="17">
         <v>508</v>
@@ -25197,7 +25195,7 @@
         <v>4.2686979493668789</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
         <v>81</v>
@@ -25217,7 +25215,7 @@
         <v>0.91629073187415511</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="17">
         <v>5542</v>
@@ -25237,7 +25235,7 @@
         <v>-0.33647223662121289</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
         <v>82</v>
@@ -25257,7 +25255,7 @@
         <v>0.59783700075562041</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="17">
         <v>574</v>
@@ -25267,7 +25265,7 @@
         <v>-1.2544826593748943</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
         <v>83</v>
@@ -25277,7 +25275,7 @@
         <v>-1.07238127651924</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
         <v>84</v>
@@ -25287,7 +25285,7 @@
         <v>-0.41428769672334337</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
         <v>85</v>
@@ -25297,7 +25295,7 @@
         <v>-0.28852205570150607</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
         <v>86</v>
@@ -25317,12 +25315,12 @@
         <v>-0.63127177684185787</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="29"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="18" t="s">
         <v>87</v>
@@ -25342,7 +25340,7 @@
         <v>-2.9917242521564522</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>14</v>
       </c>
@@ -25364,13 +25362,13 @@
         <v>-3.0233474405869645</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="29"/>
       <c r="E149" s="22"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
         <v>89</v>
@@ -25380,7 +25378,7 @@
         <v>-1.0056981012549846</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
         <v>89</v>
@@ -25390,7 +25388,7 @@
         <v>-0.29258279829884465</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
         <v>90</v>
@@ -25400,7 +25398,7 @@
         <v>-1.4252420643592532</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
         <v>91</v>
@@ -25410,7 +25408,7 @@
         <v>-1.3768981336830493</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
         <v>92</v>
@@ -25420,7 +25418,7 @@
         <v>-0.59953088802459731</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>2</v>
       </c>
@@ -25432,7 +25430,7 @@
         <v>-0.98638764955993763</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>15</v>
       </c>
@@ -25444,7 +25442,7 @@
         <v>-0.35350073586408354</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>16</v>
       </c>
@@ -25456,7 +25454,7 @@
         <v>-1.0760111708047901</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
         <v>95</v>
@@ -25466,7 +25464,7 @@
         <v>-0.4800077057788566</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
         <v>96</v>
@@ -25486,7 +25484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
         <v>97</v>
@@ -25506,7 +25504,7 @@
         <v>0.10536051565782635</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
         <v>98</v>
@@ -25526,7 +25524,7 @@
         <v>-3.3322045101752038</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
         <v>99</v>
@@ -25546,12 +25544,12 @@
         <v>-3.912023005428146</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="29"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
         <v>100</v>
@@ -25571,7 +25569,7 @@
         <v>0.24846135929849955</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
         <v>101</v>
@@ -25591,7 +25589,7 @@
         <v>0.19845093872383823</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
         <v>102</v>
@@ -25611,7 +25609,7 @@
         <v>0.17435338714477774</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
         <v>103</v>
@@ -25631,7 +25629,7 @@
         <v>0.18632957819149354</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>17</v>
       </c>
@@ -25653,7 +25651,7 @@
         <v>0.15082288973458369</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>15</v>
       </c>
@@ -25675,7 +25673,7 @@
         <v>0.22314355131420976</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>18</v>
       </c>
@@ -25697,7 +25695,7 @@
         <v>0.22314355131420976</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
         <v>107</v>
@@ -25707,7 +25705,7 @@
         <v>-0.7422394755395334</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
         <v>108</v>
@@ -25717,7 +25715,7 @@
         <v>-0.85614356273798609</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
         <v>109</v>
@@ -25727,7 +25725,7 @@
         <v>-0.74032840808646949</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
         <v>110</v>
@@ -25737,7 +25735,7 @@
         <v>-0.67252444219346519</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
         <v>111</v>
@@ -25747,7 +25745,7 @@
         <v>-0.79256019848265058</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="29"/>
